--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Result</t>
   </si>
   <si>
-    <t xml:space="preserve">performance_glitch_user </t>
+    <t xml:space="preserve">performance_glitch_user</t>
   </si>
   <si>
     <t xml:space="preserve">secret_sauce</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">Test Case Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">locked_out_user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">problem_user </t>
+    <t xml:space="preserve">locked_out_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem_user</t>
   </si>
   <si>
     <t xml:space="preserve">I am active 0</t>
@@ -181,10 +181,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
@@ -315,7 +315,7 @@
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t xml:space="preserve">User Name</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Data Fetch</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>Test Case Pass</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t>Test Case Fail</t>
   </si>
 </sst>
 </file>
@@ -186,11 +201,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.49"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="21.11" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.36" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.46" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="5" customWidth="true" hidden="false" style="0" width="36.72" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="14.49" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,17 +235,17 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,17 +255,17 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,17 +275,17 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,17 +295,17 @@
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
